--- a/artfynd/A 32152-2020.xlsx
+++ b/artfynd/A 32152-2020.xlsx
@@ -1860,7 +1860,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96287624</v>
+        <v>100247925</v>
       </c>
       <c r="B12" t="n">
         <v>12255</v>
@@ -1893,16 +1893,16 @@
           <t>(Illiger, 1798)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
@@ -1915,7 +1915,7 @@
         <v>7128352.613527627</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1963,26 +1963,39 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Björkrik klen grannaturskog, sjönära</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>IBL-fälla mellan två björkhögstubbar med fnösketickor</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Olof Grund</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96287630</v>
+        <v>100247928</v>
       </c>
       <c r="B13" t="n">
         <v>12379</v>
@@ -2015,12 +2028,16 @@
           <t>Fabricius, 1792</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
@@ -2033,7 +2050,7 @@
         <v>7128352.613527627</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2067,7 +2084,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2081,22 +2098,35 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Björkrik klen grannaturskog, sjönära</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>IBL-fälla mellan två björkhögstubbar med fnösketickor</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lars-Olof Grund</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad, Lars-Olof Grund</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Lars-Olof Grund, Lars-Ove Wikars, Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Uppföljning av naturvärden i lövrika skogar i Lidsjöbergstrakten, Strömsunds kommun, Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
